--- a/medicine/Médecine vétérinaire/Ludvig_Fabritius/Ludvig_Fabritius.xlsx
+++ b/medicine/Médecine vétérinaire/Ludvig_Fabritius/Ludvig_Fabritius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludvig Julius Wolfgang Fabritius, né le 25 avril 1854 à Vyborg et mort le 16 mars 1933 à Turku, est un vétérinaire finlandais et le fondateur et président de longue durée de l'association Hippos, la société d'élevage de chevaux de Finlande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabritius a fait ses études à l'institut d'études vétérinaires de Stockholm de 1873 à 1876 et puis travaillé comme vétérinaire dans la province de Vyborg. Il a aussi enseigné dans les collèges agricoles à Pääjoki et à Mustiala avant d'accepter en 1887 le poste de vétérinaire en chef dans la province de Turku, une fonction qu'il tient jusqu'à sa démission en 1926.
 Hors de la vie strictement professionnelle, les principaux intérêts de Fabritius étaient l'élevage du cheval finlandais et les courses de chevaux. De 1887 à 1895 Fabritius a entraîné son étalon trotteur Kirppu qui a gagné seize fois le premier prix et six fois le deuxième prix six. En 1883 Fabritius a reçu une bourse pour faire des études de zootechnie, qu'il a poursuivi dans plusieurs pays européens, notamment la Suède, l'Écosse, la France et l'Autriche pour le profit du parc zoologique qui allait être établi sur l'île de Korkeasaari à Helsinki.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(fi) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en finnois intitulé « Ludvig Fabritius » (voir la liste des auteurs).
 (fi) Kansallisbiografia
